--- a/Burndown Charts/Burndown Chart #1.xlsx
+++ b/Burndown Charts/Burndown Chart #1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wilfred\Documents\CSCC01\team15-course-project\Burndown Charts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wilfred\Documents\GitHub\team15-course-project\Burndown Charts\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,6 +24,38 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+  <si>
+    <t>xml 4</t>
+  </si>
+  <si>
+    <t>field 4</t>
+  </si>
+  <si>
+    <t>field 5</t>
+  </si>
+  <si>
+    <t>tag 1</t>
+  </si>
+  <si>
+    <t>field 6</t>
+  </si>
+  <si>
+    <t>xml 3</t>
+  </si>
+  <si>
+    <t>code batch 2</t>
+  </si>
+  <si>
+    <t>test batch 2</t>
+  </si>
+  <si>
+    <t>set up database 2</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -260,6 +292,62 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Actual</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$16:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>59</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -269,11 +357,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="453298000"/>
-        <c:axId val="453298560"/>
+        <c:axId val="312858304"/>
+        <c:axId val="312858696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="453298000"/>
+        <c:axId val="312858304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -372,7 +460,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="453298560"/>
+        <c:crossAx val="312858696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -380,7 +468,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="453298560"/>
+        <c:axId val="312858696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -488,7 +576,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="453298000"/>
+        <c:crossAx val="312858304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1130,15 +1218,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1423,15 +1511,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>0</v>
       </c>
@@ -1439,7 +1527,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1447,7 +1535,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1455,7 +1543,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1463,7 +1551,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1471,7 +1559,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1479,7 +1567,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1487,7 +1575,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1495,7 +1583,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1503,7 +1591,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1511,12 +1599,130 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
         <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>90</v>
+      </c>
+      <c r="C20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>5</v>
+      </c>
+      <c r="B21">
+        <v>83</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>6</v>
+      </c>
+      <c r="B22">
+        <v>73</v>
+      </c>
+      <c r="C22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>7</v>
+      </c>
+      <c r="B23">
+        <v>64</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>8</v>
+      </c>
+      <c r="B24">
+        <v>59</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
